--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711938.4776943611</v>
+        <v>737880.4739553542</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7600148.289906703</v>
+        <v>7638027.080517471</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>332.4291174559667</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>350.15867399885</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.72796524821662</v>
+        <v>16.80271926757064</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>153.7159402811923</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>305.9516572177111</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>103.828474294603</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>186.7264112892011</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.12404698270393</v>
+        <v>338.095080059527</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645594376</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>422.7926164890732</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.4201062858552</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>123.7760609888577</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>248.565270431792</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.43430199953366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>41.94061297377461</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>33.08339867820425</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563551</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118208</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170479</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245692</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>386.415421463631</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>43.77283765622047</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>266.1592746401478</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>47.61404849749931</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,10 +2719,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>115.6348798138344</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>240.2737862279052</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>58.66188293263116</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>47.61404849749857</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.4889870101594</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766998</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>67.45240452679934</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022444</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828946</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>862.2274484332474</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>828.1253796570749</v>
       </c>
       <c r="D2" t="n">
-        <v>797.5980855216599</v>
+        <v>796.2559988719235</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.5216580706227</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2050.508772920371</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1696.813142618502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1288.527018918155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397427</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064434</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940195</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.5057921365585</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>262.5057921365585</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645005</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>2176.931226762442</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1889.975718632873</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1617.949314219164</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>1372.557559552577</v>
       </c>
       <c r="Y4" t="n">
-        <v>347.0794944074844</v>
+        <v>1145.137888866685</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.7810113893163</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>922.6789426131436</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>983.2858974937626</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.0401778338201</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>763.7330636584709</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>763.7330636584709</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>597.8550708599936</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1508.570893424659</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1236.54448901095</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>991.1527343443627</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>763.7330636584709</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1769.823794869474</v>
+        <v>574.7486531912377</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.681322052897</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>895.771537227342</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>461.9967923856372</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>438.169766835249</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105271</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105271</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105271</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105271</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873489</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336852</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851284</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727781</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718745</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.0898789553</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925642</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925642</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
         <v>2084.815921872688</v>
@@ -5036,55 +5036,55 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245815</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179641</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590675</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,22 +5121,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
         <v>1642.802960065584</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
@@ -5276,52 +5276,52 @@
         <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>329.62631783254</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>1404.686284085399</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2561.73411929595</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>3687.465102732397</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4764.64297345017</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1128.091494878162</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1759.975738159924</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1759.975738159924</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1759.975738159924</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1759.975738159924</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
         <v>1759.975738159924</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1078.256218512436</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>905.694506995661</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>739.8165141971837</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>570.058510447921</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>393.3514564096772</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>227.7601814355048</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111519</v>
@@ -5467,19 +5467,19 @@
         <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162926</v>
+        <v>1497.494507917315</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="17">
@@ -5513,37 +5513,37 @@
         <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293691</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687547</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633331</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
         <v>4544.158956950349</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>858.1297277088687</v>
       </c>
       <c r="D19" t="n">
-        <v>467.790109783475</v>
+        <v>692.2517349103914</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342123</v>
+        <v>522.4937311611287</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959685</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111519</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177146</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2511.879170851551</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2073.736698034973</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.826913209417</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>776.1847387769202</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
@@ -5756,22 +5756,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2135.788273300162</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3292.836108510713</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3292.836108510713</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5783,19 +5783,19 @@
         <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3765.607328457495</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3346.464865036806</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2938.178741336459</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>921.2561952691946</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111519</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.977765289287</v>
+        <v>2669.180599052379</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.098318867742</v>
+        <v>2423.301152630834</v>
       </c>
       <c r="U22" t="n">
-        <v>2167.665318120847</v>
+        <v>2144.868151883939</v>
       </c>
       <c r="V22" t="n">
-        <v>1880.709809991278</v>
+        <v>1857.912643754369</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1585.886239340661</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1340.494484674073</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1113.074813988182</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.996046390396</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736212</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751439</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354704</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066059</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.92045017358</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.652494875571</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461863</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903953</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736203</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D31" t="n">
-        <v>632.556342075143</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E31" t="n">
         <v>584.4613435928212</v>
@@ -6622,10 +6622,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>982.1554751127514</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,16 +6710,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903958</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736207</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751434</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258806</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876368</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.652494875571</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805149</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312521</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930083</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181402</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937631</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>451.8971520785109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>282.1391483292481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>105.4320942910043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7822,34 +7822,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878953</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.26126017695</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2411.337553830591</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127503</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>225.9433456478614</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>235.242768839823</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>638.26691240582</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,16 +9404,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>777.2195123312636</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9887,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10124,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>866.2895820207509</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10.96843159933769</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.7831561774879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>44.28436272291243</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>185.195777656619</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.3810530784677</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>96.56253959275462</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>184.7831561774875</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.7319563997982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>267.5985112554895</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>10.96843159933769</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>113.8761173587628</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.146865729423553</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>59.30510368402695</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.146865729424069</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>131.2385495991661</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>120.4463752142715</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424178</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>122.4480280049979</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>117.7661826744346</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>639958.6144488166</v>
+        <v>651621.7326308414</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>639958.6144488166</v>
+        <v>654924.4169180174</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642133.9801870575</v>
+        <v>654924.4169180174</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>646082.5973350134</v>
+        <v>646082.5973350131</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646082.5973350134</v>
+        <v>646082.5973350133</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673348.0212327816</v>
+        <v>673348.0212327817</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
-        <v>315952.4362322979</v>
+        <v>315952.4362322976</v>
       </c>
       <c r="F2" t="n">
-        <v>315952.4362322979</v>
+        <v>315952.4362322976</v>
       </c>
       <c r="G2" t="n">
-        <v>315952.4362322979</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="H2" t="n">
         <v>315952.4362322978</v>
@@ -26335,25 +26335,25 @@
         <v>329285.9900858452</v>
       </c>
       <c r="J2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
       </c>
       <c r="M2" t="n">
+        <v>329285.9900858453</v>
+      </c>
+      <c r="N2" t="n">
+        <v>329285.9900858453</v>
+      </c>
+      <c r="O2" t="n">
         <v>329285.9900858452</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>329285.9900858452</v>
-      </c>
-      <c r="O2" t="n">
-        <v>329285.9900858451</v>
-      </c>
-      <c r="P2" t="n">
-        <v>329285.9900858451</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200305</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520271</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104674</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256396</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001106</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
         <v>78141.89423804611</v>
@@ -26442,22 +26442,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="P4" t="n">
         <v>81439.57146904286</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81439.57146904289</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764753</v>
@@ -26488,19 +26488,19 @@
         <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72484.98670729372</v>
+        <v>-115813.6995561793</v>
       </c>
       <c r="C6" t="n">
-        <v>69706.31395241607</v>
+        <v>78275.91773628238</v>
       </c>
       <c r="D6" t="n">
-        <v>62490.69681092195</v>
+        <v>95616.46211018907</v>
       </c>
       <c r="E6" t="n">
-        <v>-59508.09403542284</v>
+        <v>2479.565951692776</v>
       </c>
       <c r="F6" t="n">
-        <v>164291.1997166042</v>
+        <v>164214.6411618071</v>
       </c>
       <c r="G6" t="n">
-        <v>164291.1997166042</v>
+        <v>164214.6411618073</v>
       </c>
       <c r="H6" t="n">
-        <v>164291.1997166041</v>
+        <v>164214.6411618073</v>
       </c>
       <c r="I6" t="n">
-        <v>151763.4643781705</v>
+        <v>151740.2400387878</v>
       </c>
       <c r="J6" t="n">
-        <v>59113.71466601972</v>
+        <v>9497.12618601406</v>
       </c>
       <c r="K6" t="n">
-        <v>170128.1800110099</v>
+        <v>156290.9471037821</v>
       </c>
       <c r="L6" t="n">
-        <v>161180.5689224997</v>
+        <v>170104.9556716272</v>
       </c>
       <c r="M6" t="n">
-        <v>-16662.80659945762</v>
+        <v>35115.01105862387</v>
       </c>
       <c r="N6" t="n">
-        <v>170128.1800110098</v>
+        <v>170104.9556716273</v>
       </c>
       <c r="O6" t="n">
-        <v>170128.1800110098</v>
+        <v>170104.9556716272</v>
       </c>
       <c r="P6" t="n">
-        <v>170128.1800110097</v>
+        <v>170104.9556716272</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130622</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130599</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130622</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>97.00787993732109</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>64.79236478763238</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.1724672835806</v>
+        <v>173.0977132642266</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>268.3206344988664</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>108.9993815687713</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>97.3595417590727</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.9125277973548</v>
+        <v>83.94149472053164</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136276</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,13 +34778,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>225.9433456478614</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>235.242768839823</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>638.26691240582</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,25 +36124,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>777.2195123312636</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36607,16 +36607,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36841,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>866.2895820207509</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,10 +38187,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165088</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
